--- a/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_MORT_7_1_2013_to_6_30_2016.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_MORT_7_1_2013_to_6_30_2016.xlsx
@@ -15475,6 +15475,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -22210,6 +22213,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26221,6 +26227,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27162,6 +27171,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29563,6 +29575,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37732,6 +37747,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
